--- a/writing/DAACS-Writing-Rubric.xlsx
+++ b/writing/DAACS-Writing-Rubric.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="6620" yWindow="460" windowWidth="19200" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,25 +86,16 @@
     <t>Little effective use of linking words and phrases.</t>
   </si>
   <si>
-    <t>Sentences are correct: no run-ons, fragments, or errors in subject-verb agreement</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grammatically incorrect sentences, when present, are minor and do not interfere with meaning. </t>
   </si>
   <si>
     <t>Significant problems with grammar.</t>
   </si>
   <si>
-    <t>Sophisticated variety of sentence structures. </t>
-  </si>
-  <si>
     <t>Sufficient variety in sentence structure.</t>
   </si>
   <si>
     <t>Lack of variety in sentence structure. Might be mostly subject-verb-object.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variety of syntactic complexity. </t>
   </si>
   <si>
     <t>Complex structures used only occasionally. </t>
@@ -303,6 +294,15 @@
   </si>
   <si>
     <t>Developing</t>
+  </si>
+  <si>
+    <t>Sentences are correct: no run-ons, fragments, or errors in subject-verb agreement.</t>
+  </si>
+  <si>
+    <t>Effective and consistent variety of sentence structures. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consistent and appropriate use of sophisticated, complex sentence structures and syntactic forms. </t>
   </si>
 </sst>
 </file>
@@ -882,7 +882,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -896,30 +896,30 @@
   <sheetData>
     <row r="1" spans="1:5" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="53" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>0</v>
@@ -930,10 +930,10 @@
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>2</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>5</v>
@@ -964,13 +964,13 @@
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>8</v>
@@ -981,10 +981,10 @@
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>10</v>
@@ -998,13 +998,13 @@
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>13</v>
@@ -1015,16 +1015,16 @@
     </row>
     <row r="8" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>15</v>
@@ -1032,13 +1032,13 @@
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>16</v>
@@ -1049,70 +1049,70 @@
     </row>
     <row r="10" spans="1:5" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="C10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="E10" s="26" t="s">
         <v>19</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="16" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="28" t="s">
+    </row>
+    <row r="12" spans="1:5" s="12" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E12" s="31" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/writing/DAACS-Writing-Rubric.xlsx
+++ b/writing/DAACS-Writing-Rubric.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="460" windowWidth="19200" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,53 +30,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>The essay uses evidence from survey results and feedback to summarize student's strengths and weaknesses in terms of self-regulated learning. The summary is a bit thin; lacks detail.</t>
   </si>
   <si>
-    <t>The discussion of the survey and feedback is superficial and/or simplistic.</t>
-  </si>
-  <si>
     <t>The discussion of the feedback logically and explicitly leads to suggestions to which to commit.</t>
   </si>
   <si>
     <t>Choices of suggestions to which to commit are clearly described.  The connections to the survey and feedback might not be explicit.</t>
   </si>
   <si>
-    <t>Choices of suggestions to which to commit are vague, if present at all, and/or not connected to the survey and feedback.</t>
-  </si>
-  <si>
     <t>The explanation for choices of suggestions is clear and reasonable.</t>
   </si>
   <si>
-    <t>The choices might not all be reasonably connected to the strengths and weaknesses discussed in the overview.</t>
-  </si>
-  <si>
-    <t>The explanjation of the choices is opaque; little evidence of logical connections.</t>
-  </si>
-  <si>
     <t>The essay has a general structure and order.</t>
   </si>
   <si>
     <t>The structure and order of the essay is muddled.</t>
   </si>
   <si>
-    <t xml:space="preserve">Transitions strengthen the progression of the essay. When needed, ideas are linked together by transitions, by linking words and phrases (e.g., also, similarly, by contrast, in addition, then, therefore, etc.), or by repetition of key words and phrases. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ideas are generally linked with transitions, as needed. </t>
-  </si>
-  <si>
-    <t>Paragraphs abruptly shift from one idea to the next, without transitions when they are needed.</t>
-  </si>
-  <si>
     <t>Paragraphs are generally focused on a main idea or point.</t>
   </si>
   <si>
-    <t>Most, if not all, paragraphs lack one clear, main point; might have several topics.</t>
-  </si>
-  <si>
     <t>The connections between ideas in sentences within paragraphs are unclear</t>
   </si>
   <si>
@@ -89,21 +65,6 @@
     <t xml:space="preserve">Grammatically incorrect sentences, when present, are minor and do not interfere with meaning. </t>
   </si>
   <si>
-    <t>Significant problems with grammar.</t>
-  </si>
-  <si>
-    <t>Sufficient variety in sentence structure.</t>
-  </si>
-  <si>
-    <t>Lack of variety in sentence structure. Might be mostly subject-verb-object.</t>
-  </si>
-  <si>
-    <t>Complex structures used only occasionally. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lack of syntactic complexity. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Spelling, punctuation, and capitalization are correct to the extent that almost no editing is needed. </t>
   </si>
   <si>
@@ -111,94 +72,6 @@
   </si>
   <si>
     <t>Frequent errors in spelling, punctuation, and/or capitalization. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The essay uses relevant survey results and feedback to provide a detailed </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">summary </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>of the student’s strengths and weaknesses in terms of self-regulated learning.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The essay is well-organized, with an order and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>structure</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> that present the discussion in a clear, logical manner.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Paragraphs are consistently and clearly focused on a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>main idea</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> or point </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Within paragraphs, the individual sentences are linked together seamlessly in a way that allows the reader to see the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>relationship between the ideas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> or information in one sentence and those in another sentence.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -214,102 +87,230 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The writing explicitly </t>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>SubCriteria</t>
+  </si>
+  <si>
+    <t>connecting_ideas</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>sentences</t>
+  </si>
+  <si>
+    <t>conventions</t>
+  </si>
+  <si>
+    <t>complexity</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>ideas</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>paragraphs</t>
+  </si>
+  <si>
+    <t>transitions</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>suggestions</t>
+  </si>
+  <si>
+    <t>explanation</t>
+  </si>
+  <si>
+    <t>Mastering</t>
+  </si>
+  <si>
+    <t>Emerging</t>
+  </si>
+  <si>
+    <t>Developing</t>
+  </si>
+  <si>
+    <t>Sentences are correct: no run-ons, fragments, or errors in subject-verb agreement.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The essay uses relevant survey results and feedback to provide a detailed </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">summary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>of the student’s strengths and weaknesses in terms of self-regulated learning.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The essay is well-organized, with an order and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>structure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> that present the discussion in a clear, logical manner.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Transitions between paragraphs are appropriate and effective and strengthen the progression of the essay. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Paragraphs are consistently and clearly focused on a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>main idea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> or point </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Within paragraphs, the individual sentences are linked together seamlessly in a way that allows the reader to see the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>relationship between the ideas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> or information in one sentence and those in another sentence.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The writing explicitly </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>links</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> sentences and ideas using adverbs (e.g., similarly, also, therefore), relative pronouns (e.g., who, that, which), and conjunctions (e.g., and, or, while, whereas).</t>
     </r>
   </si>
   <si>
-    <t>Criteria</t>
-  </si>
-  <si>
-    <t>SubCriteria</t>
-  </si>
-  <si>
-    <t>connecting_ideas</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>sentences</t>
-  </si>
-  <si>
-    <t>conventions</t>
-  </si>
-  <si>
-    <t>complexity</t>
-  </si>
-  <si>
-    <t>correct</t>
-  </si>
-  <si>
-    <t>structure</t>
-  </si>
-  <si>
-    <t>ideas</t>
-  </si>
-  <si>
-    <t>links</t>
-  </si>
-  <si>
-    <t>paragraphs</t>
-  </si>
-  <si>
-    <t>transitions</t>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
-    <t>suggestions</t>
-  </si>
-  <si>
-    <t>explanation</t>
-  </si>
-  <si>
-    <t>Mastering</t>
-  </si>
-  <si>
-    <t>Emerging</t>
-  </si>
-  <si>
-    <t>Developing</t>
-  </si>
-  <si>
-    <t>Sentences are correct: no run-ons, fragments, or errors in subject-verb agreement.</t>
-  </si>
-  <si>
-    <t>Effective and consistent variety of sentence structures. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consistent and appropriate use of sophisticated, complex sentence structures and syntactic forms. </t>
+    <t xml:space="preserve">Consistent and appropriate use of a variety of sentence structures, including some sophisticated, complex sentence structures and syntactic forms. </t>
+  </si>
+  <si>
+    <t>The discussion of the survey and feedback is vague, superficial and/or simplistic.</t>
+  </si>
+  <si>
+    <t>Choices of suggestions  to which to commit are vague, if present at all, and/or only loosely connected to the survey and feedback, if at all.</t>
+  </si>
+  <si>
+    <t>The choices might not all be reasonably connected to the strengths and weaknesses discussed in the overview. Explanation lacks depth.</t>
+  </si>
+  <si>
+    <t>The explanation of the choices is opaque; little evidence of logical connections to summary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paragraphs are generally linked with transitions, as needed. </t>
+  </si>
+  <si>
+    <t>Transitions between paragraphs may be missing or ineffective; paragraphs might abruptly shift from one idea to the next.</t>
+  </si>
+  <si>
+    <t>Most or all paragraphs lack one clear, main point; might have several topics.</t>
+  </si>
+  <si>
+    <t>Significant syntax problems, such as fragments or run-on sentences, are present and numerous enough to distract readers and impede meaning.</t>
+  </si>
+  <si>
+    <t>Complex syntactic structures are present but not always used consistently; sentence structure is varied but not always sophisticated. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sentences lack syntactic complexity and vary little, if at all, in structure. The sentences are generally simple in structure (subject-verb-object). </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -345,12 +346,6 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Symbol"/>
@@ -359,6 +354,19 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -470,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -514,12 +522,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -538,34 +540,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -597,6 +581,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,11 +883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -894,225 +899,208 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="33" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:5" s="25" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="E1" s="26" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="53" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>1</v>
+      <c r="E2" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
-        <v>36</v>
+      <c r="A3" s="30" t="s">
+        <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="39" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>7</v>
+      <c r="D4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>9</v>
+      <c r="D5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
-        <v>37</v>
+      <c r="A6" s="31" t="s">
+        <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>14</v>
+      <c r="A7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>15</v>
+      <c r="A8" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
-        <v>35</v>
+      <c r="A9" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
-        <v>38</v>
+      <c r="A10" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="16" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="15" t="s">
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="52" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="12" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>26</v>
+      <c r="B12" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/writing/DAACS-Writing-Rubric.xlsx
+++ b/writing/DAACS-Writing-Rubric.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="6000" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,40 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
-  <si>
-    <t>The essay uses evidence from survey results and feedback to summarize student's strengths and weaknesses in terms of self-regulated learning. The summary is a bit thin; lacks detail.</t>
-  </si>
-  <si>
-    <t>The discussion of the feedback logically and explicitly leads to suggestions to which to commit.</t>
-  </si>
-  <si>
-    <t>Choices of suggestions to which to commit are clearly described.  The connections to the survey and feedback might not be explicit.</t>
-  </si>
-  <si>
-    <t>The explanation for choices of suggestions is clear and reasonable.</t>
-  </si>
-  <si>
-    <t>The essay has a general structure and order.</t>
-  </si>
-  <si>
-    <t>The structure and order of the essay is muddled.</t>
-  </si>
-  <si>
-    <t>Paragraphs are generally focused on a main idea or point.</t>
-  </si>
-  <si>
-    <t>The connections between ideas in sentences within paragraphs are unclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional or better choices of linking words and phrases would clarify the connections b/w ideas within paragraphs.  </t>
-  </si>
-  <si>
-    <t>Little effective use of linking words and phrases.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grammatically incorrect sentences, when present, are minor and do not interfere with meaning. </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t xml:space="preserve">Spelling, punctuation, and capitalization are correct to the extent that almost no editing is needed. </t>
   </si>
@@ -71,31 +38,12 @@
     <t>Spelling, punctuation, and capitalization are correct to the extent that only light editing is needed.</t>
   </si>
   <si>
-    <t>Frequent errors in spelling, punctuation, and/or capitalization. </t>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">he ideas or information in each sentence within a paragraph are generally linked together, if only loosely. </t>
-    </r>
-  </si>
-  <si>
     <t>Criteria</t>
   </si>
   <si>
     <t>SubCriteria</t>
   </si>
   <si>
-    <t>connecting_ideas</t>
-  </si>
-  <si>
     <t>content</t>
   </si>
   <si>
@@ -120,9 +68,6 @@
     <t>ideas</t>
   </si>
   <si>
-    <t>links</t>
-  </si>
-  <si>
     <t>paragraphs</t>
   </si>
   <si>
@@ -135,9 +80,6 @@
     <t>suggestions</t>
   </si>
   <si>
-    <t>explanation</t>
-  </si>
-  <si>
     <t>Mastering</t>
   </si>
   <si>
@@ -148,6 +90,15 @@
   </si>
   <si>
     <t>Sentences are correct: no run-ons, fragments, or errors in subject-verb agreement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consistent and appropriate use of a variety of sentence structures, including some sophisticated, complex sentence structures and syntactic forms. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sentences lack syntactic complexity and vary little, if at all, in structure. The sentences are generally simple in structure (subject-verb-object). </t>
+  </si>
+  <si>
+    <t>cohesion</t>
   </si>
   <si>
     <r>
@@ -157,7 +108,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -166,12 +117,14 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>of the student’s strengths and weaknesses in terms of self-regulated learning.</t>
     </r>
+  </si>
+  <si>
+    <t>The discussion of suggestions for improvement in SRL are logically and explicitly related to the survey results and feedback, and developed in sufficient depth.</t>
   </si>
   <si>
     <r>
@@ -181,7 +134,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -190,15 +143,14 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> that present the discussion in a clear, logical manner.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Transitions between paragraphs are appropriate and effective and strengthen the progression of the essay. </t>
+    <t xml:space="preserve">Transitions between paragraphs are appropriate and effective, and strengthen the progression of the essay. </t>
   </si>
   <si>
     <r>
@@ -208,7 +160,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -217,100 +169,70 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> or point </t>
+      <t xml:space="preserve"> or point. </t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Within paragraphs, the individual sentences are linked together seamlessly in a way that allows the reader to see the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>relationship between the ideas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> or information in one sentence and those in another sentence.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The writing explicitly </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>links</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> sentences and ideas using adverbs (e.g., similarly, also, therefore), relative pronouns (e.g., who, that, which), and conjunctions (e.g., and, or, while, whereas).</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Consistent and appropriate use of a variety of sentence structures, including some sophisticated, complex sentence structures and syntactic forms. </t>
-  </si>
-  <si>
-    <t>The discussion of the survey and feedback is vague, superficial and/or simplistic.</t>
-  </si>
-  <si>
-    <t>Choices of suggestions  to which to commit are vague, if present at all, and/or only loosely connected to the survey and feedback, if at all.</t>
-  </si>
-  <si>
-    <t>The choices might not all be reasonably connected to the strengths and weaknesses discussed in the overview. Explanation lacks depth.</t>
-  </si>
-  <si>
-    <t>The explanation of the choices is opaque; little evidence of logical connections to summary.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paragraphs are generally linked with transitions, as needed. </t>
-  </si>
-  <si>
-    <t>Transitions between paragraphs may be missing or ineffective; paragraphs might abruptly shift from one idea to the next.</t>
-  </si>
-  <si>
-    <t>Most or all paragraphs lack one clear, main point; might have several topics.</t>
-  </si>
-  <si>
-    <t>Significant syntax problems, such as fragments or run-on sentences, are present and numerous enough to distract readers and impede meaning.</t>
-  </si>
-  <si>
-    <t>Complex syntactic structures are present but not always used consistently; sentence structure is varied but not always sophisticated. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sentences lack syntactic complexity and vary little, if at all, in structure. The sentences are generally simple in structure (subject-verb-object). </t>
+    <t>Within paragraphs, the individual sentences are seamlessly linked together; the reader can see the relationship between the ideas or information in one sentence and those in another sentence. The writing explicitly links sentences and ideas using adverbs (e.g., similarly, also, therefore), relative pronouns (e.g., who, that, which), conjunctions (e.g., and, or, while, whereas), and/or the repetition of key words, as appropriate.</t>
+  </si>
+  <si>
+    <t>The essay refers to survey results and feedback in the summary of  strengths and weaknesses related to self-regulated learning. The summary is a bit thin though: Additional, relevant details and examples would have strengthened it.</t>
+  </si>
+  <si>
+    <t>The essay includes a clear discussion of improvements to be made to SRL, but the connections to the survey results and feedback are not always explicit and clear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The essay has a basic structure but does not offer a clear, overall organization that enables a reader to understand the progression of one idea to another. It might have been strengthened by the inclusion of an introduction, topic sentences, conclusion, etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transitions between paragraphs include language that signals a shift from one main idea to the next, as needed (e.g. “In terms of monitoring what I do . . .” “In the mindset category . . .”). The use of additional transitions (e.g. similarly, in addition, next, as a result) would have helped link the paragraphs and strengthen the overall organization of the essay. </t>
+  </si>
+  <si>
+    <t>In general, each paragraph has a clear focus. Some might have been strengthened by a topic sentence that establishes the focus, but the main ideas are apparent.</t>
+  </si>
+  <si>
+    <t>The ideas or information in each sentence within a paragraph are loosely linked together. The connections between sentences would have been clarified by additional or better choices of linking words and phrases, such as adverbs (e.g., similarly, also, therefore), relative pronouns (e.g., who, that, which), conjunctions (e.g., and, or, while, whereas), and/or the repetition of key words, as appropriate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The sentences are generally correct. Minor issues with grammar, such as errors in subject-verb agreement (e.g., "the survey results suggests…") do not interfere with meaning. </t>
+  </si>
+  <si>
+    <t>Complex syntactic structures are present but not consistently used; sentence structure is varied but not often sophisticated. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The summary of strengths and weaknesses in SRL is under-developed. It might need more detail about the results and feedback, and/or should address both strengths and weaknesses, rather than one or the other. </t>
+  </si>
+  <si>
+    <t>The discussion of possible improvements in SRL is vague and/or disconnected from the strengths and weaknesses discussed in the summary. It might have been stronger if the suggestions for improvement were more specific, and explicitly tied to the results and feedback.</t>
+  </si>
+  <si>
+    <t>The essay is not carefully structured. It might move almost randomly from one point to the next. It could have been strengthened by the use of an introduction, topic sentences, a conclusion, and other organizational features.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transitions between paragraphs are missing or ineffective. As a result, the paragraphs abruptly shift from one idea to the next. Transitions (e.g. similarly, in addition, next, as a result) would have helped link the paragraphs and strengthen the overall organization of the essay. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most or all paragraphs lack a clear focus on a main point or topic, perhaps because too many ideas are packed into one paragraph.  Each topic should be fully developed in separate paragraphs. Each paragraph should include a statement of the main point, and every sentence in the paragraph should relate to that point. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because the ideas or information in each sentence within a paragraph are not linked together, it is hard for a reader to see the relationship between  sentences. Ideas could be connected with adverbs (e.g., similarly, also, therefore), relative pronouns (e.g., who, that, which), conjunctions (e.g., and, or, while, whereas), and/or the repetition of key words, as appropriate.
+</t>
+  </si>
+  <si>
+    <t>Problems with grammar make the essay hard to read and understand. More attention to the parts of speech (e.g., nouns, pronouns, verbs, adjectives, etc.) was needed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Careful editing was needed to correct frequent, distracting errors in spelling, punctuation, and/or capitalization. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -347,26 +269,34 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Symbol"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF00B050"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -377,7 +307,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -459,15 +389,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thick">
         <color auto="1"/>
       </top>
@@ -478,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -540,16 +461,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -559,12 +471,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -582,25 +491,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -883,11 +816,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -899,208 +832,174 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="25" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:5" s="22" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="66" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="91" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="C3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E5" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E6" s="42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="38" t="s">
         <v>34</v>
       </c>
+      <c r="E7" s="38" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="53" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="35" t="s">
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E9" s="44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="E10" s="45" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="52" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="52" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/writing/DAACS-Writing-Rubric.xlsx
+++ b/writing/DAACS-Writing-Rubric.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,29 +101,6 @@
     <t>cohesion</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The essay uses relevant survey results and feedback to provide a detailed </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">summary </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>of the student’s strengths and weaknesses in terms of self-regulated learning.</t>
-    </r>
-  </si>
-  <si>
     <t>The discussion of suggestions for improvement in SRL are logically and explicitly related to the survey results and feedback, and developed in sufficient depth.</t>
   </si>
   <si>
@@ -226,6 +203,29 @@
   </si>
   <si>
     <t xml:space="preserve">Careful editing was needed to correct frequent, distracting errors in spelling, punctuation, and/or capitalization. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The essay uses relevant survey results and feedback to provide a detailed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">summary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>of the student's strengths and weaknesses in terms of self-regulated learning.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -819,8 +819,8 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,13 +857,13 @@
         <v>14</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="91" x14ac:dyDescent="0.2">
@@ -874,13 +874,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -891,13 +891,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -908,13 +908,13 @@
         <v>13</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
@@ -925,13 +925,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" ht="192" x14ac:dyDescent="0.2">
@@ -942,13 +942,13 @@
         <v>22</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -962,10 +962,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -979,7 +979,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="44" t="s">
         <v>21</v>
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
